--- a/biology/Zoologie/Antillocorini/Antillocorini.xlsx
+++ b/biology/Zoologie/Antillocorini/Antillocorini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Antillocorini sont une tribu d'insectes hétéroptères (punaises) de la famille des Rhyparochromidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Antillocorini se caractérisent, face aux autres Rhyparochrominae, par des critères dont certains sont microscopiques : des stigmates abdominaux (ou spiracles) tous ventraux, la paire postérieure de trichobothries du 5e sternite (segment abdominal ventral) implantées en biais et non sur une ligne verticale, des ocelles situées entre les yeux ou légèrement en arrière; la suture entre les sternites 4 et 5, n'atteint en général pas le bord de l'abdomen, et est incurvée vers l'avant sur les côtés. Le 2e segment du rostre atteint ou dépasse la base de la tête vers l'arrière. Les tarses comportent 3 segments (alors qu'il n'y en a que 2 chez les Lilliputocorini)[2]. Les juvéniles ont une suture abdominale dorsale se terminant en Y sur les côtés. Par contraste avec les Lethaeini, les buccules (renflements sur les côtés de la base du rostre) se rejoignent loin en arrière de la base de rostre et La tête ne présente pas de zones iridescentes. les membranes n'ont pas de veine transversale[3]. Ils dépassent rarement 3 mm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Antillocorini se caractérisent, face aux autres Rhyparochrominae, par des critères dont certains sont microscopiques : des stigmates abdominaux (ou spiracles) tous ventraux, la paire postérieure de trichobothries du 5e sternite (segment abdominal ventral) implantées en biais et non sur une ligne verticale, des ocelles situées entre les yeux ou légèrement en arrière; la suture entre les sternites 4 et 5, n'atteint en général pas le bord de l'abdomen, et est incurvée vers l'avant sur les côtés. Le 2e segment du rostre atteint ou dépasse la base de la tête vers l'arrière. Les tarses comportent 3 segments (alors qu'il n'y en a que 2 chez les Lilliputocorini). Les juvéniles ont une suture abdominale dorsale se terminant en Y sur les côtés. Par contraste avec les Lethaeini, les buccules (renflements sur les côtés de la base du rostre) se rejoignent loin en arrière de la base de rostre et La tête ne présente pas de zones iridescentes. les membranes n'ont pas de veine transversale. Ils dépassent rarement 3 mm.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce groupe n'est pas restreint aux Antilles, comme son nom pourrait le laisser croire. Il est cosmopolite, mais surtout tropical et subtropical[2], avec la plus grande diversité apparaît dans la zone néotropicale[4]. Quelques espèces s'aventurent toutefois plus haut dans l'hémisphère Nord, notamment Antillocoris et Paurocoris dans la zone néarctique, et Homoscelis, Iodinus et Tropisthetus dans le Paléarctique[2],[3],[5].  
-En Europe, on rencontre les genres Homoscelis (une espèce en Grèce) et Tropisthetus (six espèces, dont trois en France[6] et une en Suisse), dont Tropistethus holosericus, qui est présente au Nord jusqu'en Grande-Bretagne[7] et en Scandinavie[8].  
-Au Canada, on rencontre deux espèces, Antollocoris minutus et A. pilosulus, toutes deux présentes au Québec[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce groupe n'est pas restreint aux Antilles, comme son nom pourrait le laisser croire. Il est cosmopolite, mais surtout tropical et subtropical, avec la plus grande diversité apparaît dans la zone néotropicale. Quelques espèces s'aventurent toutefois plus haut dans l'hémisphère Nord, notamment Antillocoris et Paurocoris dans la zone néarctique, et Homoscelis, Iodinus et Tropisthetus dans le Paléarctique.  
+En Europe, on rencontre les genres Homoscelis (une espèce en Grèce) et Tropisthetus (six espèces, dont trois en France et une en Suisse), dont Tropistethus holosericus, qui est présente au Nord jusqu'en Grande-Bretagne et en Scandinavie.  
+Au Canada, on rencontre deux espèces, Antollocoris minutus et A. pilosulus, toutes deux présentes au Québec.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres Rhyparochromidae, il s'agit de mangeurs de graines (la famille est appelée « seed bugs » en anglais, signifiant « punaises des graines »), qu'elles trouvent au sol dans la litière. Elles sucent également la partie préradicale des plantes[3]. 
-Deux espèces ont été décrites dans des grottes: l'une, Botocudo cavernicola, en Nouvelle-Guinée, sur le guano d'une colonie de chauves-souris. Celles-ci, des roussettes, se nourrissent de fruits, dont les graines se retrouvent dans leur guano, ce qui fait le menu de cette espèce de punaises; l'autre, Valeris subcavernicola (anciennement dans le genre Cligenes[10]) à Trinidad et au Pérou, où elle se nourrit également de graines, présumées de Ficus et de Piper, également dans le guano de colonies de chauves-souris, et capables de transporter des graines empalées à l'extrémité de leur rostre[11].
-Dans le Paléarctique, les espèces hibernent à l'état adulte[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres Rhyparochromidae, il s'agit de mangeurs de graines (la famille est appelée « seed bugs » en anglais, signifiant « punaises des graines »), qu'elles trouvent au sol dans la litière. Elles sucent également la partie préradicale des plantes. 
+Deux espèces ont été décrites dans des grottes: l'une, Botocudo cavernicola, en Nouvelle-Guinée, sur le guano d'une colonie de chauves-souris. Celles-ci, des roussettes, se nourrissent de fruits, dont les graines se retrouvent dans leur guano, ce qui fait le menu de cette espèce de punaises; l'autre, Valeris subcavernicola (anciennement dans le genre Cligenes) à Trinidad et au Pérou, où elle se nourrit également de graines, présumées de Ficus et de Piper, également dans le guano de colonies de chauves-souris, et capables de transporter des graines empalées à l'extrémité de leur rostre.
+Dans le Paléarctique, les espèces hibernent à l'état adulte.
 </t>
         </is>
       </c>
@@ -608,15 +626,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon, qui fait partie de la sous-famille des Rhyparochrominae, a été décrit en 1964 par l'entomologiste américain Peter D. Ashlock[12] (1929-1989), pour les séparer des Lethaeini dans lesquels ils étaient compris jusqu'alors[13]. Il a été repris et accepté par Sweet  (1967)[14]. De nombreuses études précisent leur systématique, leurs relations et leur répartition[15],[16],[17],[18],[19],[20],[21],[22],[23].
-Cette tribu comprend 35 genres et près de 120 espèces. Le genre type est Antillocoris Kirkaldy, 1904.  Le site Lygaeoidea Species Files présente un catalogue en ligne des espèces avec leurs références[2],[5].
-D'un point de vue phylogénique, il n'est peut-être pas encore monophylétique, car certains taxons néotropicaux présentent un alignement des trichobothries abdominales, et une bordure postérieure de la corie fortement concave[2]. Le manque de collecte d'individus juvéniles ne permet pas de déterminer certains critères. Comme il s'agit de punaises de très petite taille, de nouvelles espèces continuent encore à être découvertes, en particulier dans la zone néotropicale[2].
-Fossiles
-Il n'y a pas de fossiles connus à ce jour[24].
-Liste des genres
-Selon BioLib                    (8 décembre 2022)[12], complété à partir de Lygaeoidea Species Files[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon, qui fait partie de la sous-famille des Rhyparochrominae, a été décrit en 1964 par l'entomologiste américain Peter D. Ashlock (1929-1989), pour les séparer des Lethaeini dans lesquels ils étaient compris jusqu'alors. Il a été repris et accepté par Sweet  (1967). De nombreuses études précisent leur systématique, leurs relations et leur répartition.
+Cette tribu comprend 35 genres et près de 120 espèces. Le genre type est Antillocoris Kirkaldy, 1904.  Le site Lygaeoidea Species Files présente un catalogue en ligne des espèces avec leurs références,.
+D'un point de vue phylogénique, il n'est peut-être pas encore monophylétique, car certains taxons néotropicaux présentent un alignement des trichobothries abdominales, et une bordure postérieure de la corie fortement concave. Le manque de collecte d'individus juvéniles ne permet pas de déterminer certains critères. Comme il s'agit de punaises de très petite taille, de nouvelles espèces continuent encore à être découvertes, en particulier dans la zone néotropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antillocorini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antillocorini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de fossiles connus à ce jour.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antillocorini</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antillocorini</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (8 décembre 2022), complété à partir de Lygaeoidea Species Files :
 genre Acolhua Distant, 1893
 genre Antillocoris Kirkaldy, 1874
 genre Antillodema Slater, 1980
